--- a/VyTrackQa2Users.xlsx
+++ b/VyTrackQa2Users.xlsx
@@ -5,15 +5,15 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\asus\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\asus\Desktop\Project\cydeo-cucumber-junit\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B7FE8552-47C3-465D-B966-C611FDAAD936}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D6EF21B0-6E35-4751-AA55-A677A044FEE0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="10718" yWindow="0" windowWidth="10965" windowHeight="11512" xr2:uid="{5EA031ED-618A-4B8D-A450-1D68CBFC4413}"/>
+    <workbookView xWindow="5400" yWindow="1657" windowWidth="16200" windowHeight="8296" xr2:uid="{5EA031ED-618A-4B8D-A450-1D68CBFC4413}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sayfa1" sheetId="1" r:id="rId1"/>
+    <sheet name="data" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -466,7 +466,7 @@
   <dimension ref="A1:E7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
